--- a/01_signal_production/Data_Generation_wRHC/Data_5K_13_6_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_wRHC/Data_5K_13_6_TeV/lq_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.932</v>
+        <v>0.0001496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1317</v>
+        <v>3.411e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01391</v>
+        <v>9.289e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002388</v>
+        <v>2.855e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005454</v>
+        <v>9.593000000000001e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001484</v>
+        <v>3.453e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>4.58e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.538e-05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.513e-06</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.093e-06</v>
+        <v>1.316e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.77</v>
+        <v>0.0005992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5292</v>
+        <v>0.0001352</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05513</v>
+        <v>3.728e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009583</v>
+        <v>1.151e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002193</v>
+        <v>3.868e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0005922</v>
+        <v>1.385e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000183</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.167e-05</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.22e-05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.333e-06</v>
+        <v>5.225e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.23</v>
+        <v>0.001333</v>
       </c>
       <c r="C4" t="n">
-        <v>2.103</v>
+        <v>0.0003049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2215</v>
+        <v>8.313999999999999e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0382</v>
+        <v>2.552e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008692</v>
+        <v>8.707e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002379</v>
+        <v>3.124e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007304</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0002469</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.864000000000001e-05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.358e-05</v>
+        <v>1.182e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.1</v>
+        <v>0.002404</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75</v>
+        <v>0.0005442999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5007</v>
+        <v>0.0001501</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08620999999999999</v>
+        <v>4.57e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01966</v>
+        <v>1.531e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005343</v>
+        <v>5.438e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001646</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0005557</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0001994</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.576000000000001e-05</v>
+        <v>2.072e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251.1</v>
+        <v>0.003735</v>
       </c>
       <c r="C6" t="n">
-        <v>8.430999999999999</v>
+        <v>0.000855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8925999999999999</v>
+        <v>0.0002327</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1534</v>
+        <v>7.138e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03493</v>
+        <v>2.396e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.009488999999999999</v>
+        <v>8.675000000000001e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002915</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0009843</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0003542</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0001335</v>
+        <v>3.277e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390.9</v>
+        <v>0.005362</v>
       </c>
       <c r="C7" t="n">
-        <v>13.15</v>
+        <v>0.001238</v>
       </c>
       <c r="D7" t="n">
-        <v>1.388</v>
+        <v>0.0003327</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2402</v>
+        <v>0.0001034</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05459</v>
+        <v>3.491e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01484</v>
+        <v>1.246e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004577</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.001535</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0005557</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0002092</v>
+        <v>4.702e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>569.1</v>
+        <v>0.007278</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>0.001676</v>
       </c>
       <c r="D8" t="n">
-        <v>1.999</v>
+        <v>0.0004531</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345</v>
+        <v>0.0001412</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07875</v>
+        <v>4.684e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02129</v>
+        <v>1.698e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.002214</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0007961</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0003015</v>
+        <v>6.423e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.009601999999999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002183</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0005899</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0001835</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.153e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.204e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.341e-06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002763</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0007487</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.807e-05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.791e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.06e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01486</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003379</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0009261</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0002866</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.664e-05</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.413e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.308e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01794</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.004135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0003473</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0001167</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.206e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.591e-05</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.02153</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.004902</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001333</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0004122</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0001381</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.995e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.884e-05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.02528</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.005737</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001554</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0004841</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0001629</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.861e-05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.226e-05</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.02927</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.006691</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0005614</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0001879</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.718e-05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.576e-05</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.03376</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.007658</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.002083</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0006494</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0002171</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.79e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.941e-05</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03833</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.008670000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.002375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0007337999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0002467</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.831e-05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.389e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04339</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.002685</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0008317</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0002787</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0001003</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.78e-05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.04843</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01103</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.003007</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0009167</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0003138</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000112</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.262e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.05401</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.003349</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00103</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0003465</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0001243</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.677e-05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.05983</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01374</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.003737</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001136</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0003862</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0001388</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.237e-05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.06574000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.01507</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.004058</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001259</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0004235</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0001521</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.795e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.07234</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01636</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.004527</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001387</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0004622</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0001664</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.303e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07901</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01807</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.004894</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001505</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0005056</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0001815</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.896e-05</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.08645</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01975</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.005303</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001651</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000563</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0001998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7.509e-05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09335</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0214</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.005823</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001786</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0005996</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0002184</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.177e-05</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02317</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.006297</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001937</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000652</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0002313</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.862e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1089</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.02485</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.006809</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002089</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0006999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.000253</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9.58e-05</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02694</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.007227</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002241</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0007535</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0002702</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0001027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1269</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.02847</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.007818</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.002393</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0008091</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0002922</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0001098</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.03078</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.002581</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0008617</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.000314</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0001179</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1433</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.03309</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.008909</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002752</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0003325</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0001256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1533</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.0346</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.009516999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.002964</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0009894000000000001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0003523</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.000133</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1639</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03723</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01011</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.003122</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00104</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.000376</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0001414</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1732</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03908</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01072</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.003277</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001105</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0004002</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0001507</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.1832</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.04195</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01133</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.003505</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.001177</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0004228</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0001611</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1943</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.04431</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0121</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.003705</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.001248</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0004482</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0001688</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.2046</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.04635</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01275</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.003876</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001319</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0004689</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0001798</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.2165</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0492</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.01335</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.004135</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.001381</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0004994</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0001889</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.2281</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05173</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01409</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00436</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.001452</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0005278</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0001984</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2418</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.05447</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01467</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.004578</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001545</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0005558</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0002091</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2489</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.05689</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01567</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.004785</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001627</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0005821</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0002178</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2613</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.06028</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.005006</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.001694</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0006123</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0002289</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.06318</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01714</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.005326</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.001777</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0006382</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0002406</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.2905</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.06587</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01801</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.005543</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.001869</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0006731</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0002521</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3003</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.06841</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01894</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.005782</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.001939</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0007016</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0002658</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.07222000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01987</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.006053</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.002021</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0007308</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0002753</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3264</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.07518</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.02039</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.006246</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.002119</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0007648000000000001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0002893</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.07858</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.02134</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.006644</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.002212</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0007886</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0003004</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.08178000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.02225</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.006914</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.002312</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0008277</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0003121</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3735</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.08531999999999999</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.02339</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.00718</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.002384</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0008651</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0003263</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.08921</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.02402</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.007478</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.002507</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0008899999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0003424</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.4003</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.09218999999999999</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.02521</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.007684</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.002611</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0009397</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0003555</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09531000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.02613</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.008038</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.002706</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0009731</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0003689</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.09854</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.02727</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.008326</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.002802</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.00101</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0003826</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1028</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.02805</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.008632000000000001</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.002897</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001039</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0003939</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>768.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.83</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.737</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.4701</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1068</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02915</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.008947999999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.003023</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="B57" t="n">
+        <v>0.4723</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1064</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.02906</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.008926</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.002996</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.001084</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.0004087</v>
+      <c r="H57" t="n">
+        <v>0.0004096</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.007706</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.002374</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0007896</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0002865</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0001081</v>
       </c>
     </row>
   </sheetData>
